--- a/events.xlsx
+++ b/events.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdell/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdell/Documents/EventsChatbot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D261BAD8-C602-B943-8C81-5FE58D751DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BAE3B8-2CAF-AC45-B68E-4F2C32CD5302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3591,8 +3591,8 @@
   <dimension ref="A1:Z448"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B434" sqref="B434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14204,7 +14204,9 @@
       <c r="Z279" s="8"/>
     </row>
     <row r="280" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A280" s="5"/>
+      <c r="A280" s="5">
+        <v>279</v>
+      </c>
       <c r="B280" s="6" t="s">
         <v>658</v>
       </c>
@@ -14240,7 +14242,9 @@
       <c r="Z280" s="8"/>
     </row>
     <row r="281" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A281" s="9"/>
+      <c r="A281" s="9">
+        <v>280</v>
+      </c>
       <c r="B281" s="10" t="s">
         <v>661</v>
       </c>
@@ -14276,7 +14280,9 @@
       <c r="Z281" s="8"/>
     </row>
     <row r="282" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A282" s="5"/>
+      <c r="A282" s="5">
+        <v>281</v>
+      </c>
       <c r="B282" s="6" t="s">
         <v>664</v>
       </c>
@@ -14312,7 +14318,9 @@
       <c r="Z282" s="8"/>
     </row>
     <row r="283" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A283" s="9"/>
+      <c r="A283" s="9">
+        <v>282</v>
+      </c>
       <c r="B283" s="10" t="s">
         <v>667</v>
       </c>
@@ -14348,7 +14356,9 @@
       <c r="Z283" s="8"/>
     </row>
     <row r="284" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A284" s="5"/>
+      <c r="A284" s="5">
+        <v>283</v>
+      </c>
       <c r="B284" s="6" t="s">
         <v>669</v>
       </c>
@@ -14384,7 +14394,9 @@
       <c r="Z284" s="8"/>
     </row>
     <row r="285" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A285" s="9"/>
+      <c r="A285" s="9">
+        <v>284</v>
+      </c>
       <c r="B285" s="10" t="s">
         <v>671</v>
       </c>
@@ -14420,7 +14432,9 @@
       <c r="Z285" s="8"/>
     </row>
     <row r="286" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A286" s="5"/>
+      <c r="A286" s="5">
+        <v>285</v>
+      </c>
       <c r="B286" s="6" t="s">
         <v>673</v>
       </c>
@@ -14456,7 +14470,9 @@
       <c r="Z286" s="8"/>
     </row>
     <row r="287" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A287" s="9"/>
+      <c r="A287" s="9">
+        <v>286</v>
+      </c>
       <c r="B287" s="10" t="s">
         <v>676</v>
       </c>
@@ -14492,7 +14508,9 @@
       <c r="Z287" s="8"/>
     </row>
     <row r="288" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A288" s="5"/>
+      <c r="A288" s="5">
+        <v>287</v>
+      </c>
       <c r="B288" s="6" t="s">
         <v>678</v>
       </c>
@@ -14528,7 +14546,9 @@
       <c r="Z288" s="8"/>
     </row>
     <row r="289" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A289" s="9"/>
+      <c r="A289" s="9">
+        <v>288</v>
+      </c>
       <c r="B289" s="10" t="s">
         <v>681</v>
       </c>
@@ -14564,7 +14584,9 @@
       <c r="Z289" s="8"/>
     </row>
     <row r="290" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A290" s="5"/>
+      <c r="A290" s="5">
+        <v>289</v>
+      </c>
       <c r="B290" s="6" t="s">
         <v>684</v>
       </c>
@@ -14600,7 +14622,9 @@
       <c r="Z290" s="8"/>
     </row>
     <row r="291" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A291" s="9"/>
+      <c r="A291" s="9">
+        <v>290</v>
+      </c>
       <c r="B291" s="10" t="s">
         <v>686</v>
       </c>
@@ -14636,7 +14660,9 @@
       <c r="Z291" s="8"/>
     </row>
     <row r="292" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A292" s="5"/>
+      <c r="A292" s="5">
+        <v>291</v>
+      </c>
       <c r="B292" s="6" t="s">
         <v>688</v>
       </c>
@@ -14672,7 +14698,9 @@
       <c r="Z292" s="8"/>
     </row>
     <row r="293" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A293" s="9"/>
+      <c r="A293" s="9">
+        <v>292</v>
+      </c>
       <c r="B293" s="10" t="s">
         <v>690</v>
       </c>
@@ -14708,7 +14736,9 @@
       <c r="Z293" s="8"/>
     </row>
     <row r="294" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A294" s="5"/>
+      <c r="A294" s="5">
+        <v>293</v>
+      </c>
       <c r="B294" s="6" t="s">
         <v>692</v>
       </c>
@@ -14744,7 +14774,9 @@
       <c r="Z294" s="8"/>
     </row>
     <row r="295" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A295" s="9"/>
+      <c r="A295" s="9">
+        <v>294</v>
+      </c>
       <c r="B295" s="10" t="s">
         <v>695</v>
       </c>
@@ -14780,7 +14812,9 @@
       <c r="Z295" s="8"/>
     </row>
     <row r="296" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A296" s="5"/>
+      <c r="A296" s="5">
+        <v>295</v>
+      </c>
       <c r="B296" s="6" t="s">
         <v>698</v>
       </c>
@@ -14816,7 +14850,9 @@
       <c r="Z296" s="8"/>
     </row>
     <row r="297" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A297" s="9"/>
+      <c r="A297" s="9">
+        <v>296</v>
+      </c>
       <c r="B297" s="10" t="s">
         <v>700</v>
       </c>
@@ -14852,7 +14888,9 @@
       <c r="Z297" s="8"/>
     </row>
     <row r="298" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A298" s="5"/>
+      <c r="A298" s="5">
+        <v>297</v>
+      </c>
       <c r="B298" s="6" t="s">
         <v>703</v>
       </c>
@@ -14888,7 +14926,9 @@
       <c r="Z298" s="8"/>
     </row>
     <row r="299" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A299" s="9"/>
+      <c r="A299" s="9">
+        <v>298</v>
+      </c>
       <c r="B299" s="10" t="s">
         <v>706</v>
       </c>
@@ -14924,7 +14964,9 @@
       <c r="Z299" s="8"/>
     </row>
     <row r="300" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A300" s="5"/>
+      <c r="A300" s="5">
+        <v>299</v>
+      </c>
       <c r="B300" s="6" t="s">
         <v>709</v>
       </c>
@@ -14960,7 +15002,9 @@
       <c r="Z300" s="8"/>
     </row>
     <row r="301" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A301" s="9"/>
+      <c r="A301" s="9">
+        <v>300</v>
+      </c>
       <c r="B301" s="10" t="s">
         <v>711</v>
       </c>
@@ -14996,7 +15040,9 @@
       <c r="Z301" s="8"/>
     </row>
     <row r="302" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A302" s="5"/>
+      <c r="A302" s="5">
+        <v>301</v>
+      </c>
       <c r="B302" s="6" t="s">
         <v>713</v>
       </c>
@@ -15032,7 +15078,9 @@
       <c r="Z302" s="8"/>
     </row>
     <row r="303" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A303" s="9"/>
+      <c r="A303" s="9">
+        <v>302</v>
+      </c>
       <c r="B303" s="10" t="s">
         <v>715</v>
       </c>
@@ -15068,7 +15116,9 @@
       <c r="Z303" s="8"/>
     </row>
     <row r="304" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A304" s="5"/>
+      <c r="A304" s="5">
+        <v>303</v>
+      </c>
       <c r="B304" s="6" t="s">
         <v>717</v>
       </c>
@@ -15104,7 +15154,9 @@
       <c r="Z304" s="8"/>
     </row>
     <row r="305" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A305" s="9"/>
+      <c r="A305" s="9">
+        <v>304</v>
+      </c>
       <c r="B305" s="10" t="s">
         <v>719</v>
       </c>
@@ -15140,7 +15192,9 @@
       <c r="Z305" s="8"/>
     </row>
     <row r="306" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A306" s="5"/>
+      <c r="A306" s="5">
+        <v>305</v>
+      </c>
       <c r="B306" s="6" t="s">
         <v>721</v>
       </c>
@@ -15176,7 +15230,9 @@
       <c r="Z306" s="8"/>
     </row>
     <row r="307" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A307" s="9"/>
+      <c r="A307" s="9">
+        <v>306</v>
+      </c>
       <c r="B307" s="10" t="s">
         <v>723</v>
       </c>
@@ -15212,7 +15268,9 @@
       <c r="Z307" s="8"/>
     </row>
     <row r="308" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A308" s="5"/>
+      <c r="A308" s="5">
+        <v>307</v>
+      </c>
       <c r="B308" s="6" t="s">
         <v>725</v>
       </c>
@@ -15248,7 +15306,9 @@
       <c r="Z308" s="8"/>
     </row>
     <row r="309" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A309" s="9"/>
+      <c r="A309" s="9">
+        <v>308</v>
+      </c>
       <c r="B309" s="10" t="s">
         <v>727</v>
       </c>
@@ -15284,7 +15344,9 @@
       <c r="Z309" s="8"/>
     </row>
     <row r="310" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A310" s="5"/>
+      <c r="A310" s="5">
+        <v>309</v>
+      </c>
       <c r="B310" s="6" t="s">
         <v>729</v>
       </c>
@@ -15320,7 +15382,9 @@
       <c r="Z310" s="8"/>
     </row>
     <row r="311" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A311" s="9"/>
+      <c r="A311" s="9">
+        <v>310</v>
+      </c>
       <c r="B311" s="10" t="s">
         <v>731</v>
       </c>
@@ -15356,7 +15420,9 @@
       <c r="Z311" s="8"/>
     </row>
     <row r="312" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A312" s="5"/>
+      <c r="A312" s="5">
+        <v>311</v>
+      </c>
       <c r="B312" s="6" t="s">
         <v>733</v>
       </c>
@@ -15392,7 +15458,9 @@
       <c r="Z312" s="8"/>
     </row>
     <row r="313" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A313" s="9"/>
+      <c r="A313" s="9">
+        <v>312</v>
+      </c>
       <c r="B313" s="10" t="s">
         <v>735</v>
       </c>
@@ -15428,7 +15496,9 @@
       <c r="Z313" s="8"/>
     </row>
     <row r="314" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A314" s="5"/>
+      <c r="A314" s="5">
+        <v>313</v>
+      </c>
       <c r="B314" s="6" t="s">
         <v>737</v>
       </c>
@@ -15464,7 +15534,9 @@
       <c r="Z314" s="8"/>
     </row>
     <row r="315" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A315" s="9"/>
+      <c r="A315" s="9">
+        <v>314</v>
+      </c>
       <c r="B315" s="10" t="s">
         <v>739</v>
       </c>
@@ -15500,7 +15572,9 @@
       <c r="Z315" s="8"/>
     </row>
     <row r="316" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A316" s="5"/>
+      <c r="A316" s="5">
+        <v>315</v>
+      </c>
       <c r="B316" s="6" t="s">
         <v>741</v>
       </c>
@@ -15536,7 +15610,9 @@
       <c r="Z316" s="8"/>
     </row>
     <row r="317" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A317" s="9"/>
+      <c r="A317" s="9">
+        <v>316</v>
+      </c>
       <c r="B317" s="10" t="s">
         <v>743</v>
       </c>
@@ -15572,7 +15648,9 @@
       <c r="Z317" s="8"/>
     </row>
     <row r="318" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A318" s="5"/>
+      <c r="A318" s="5">
+        <v>317</v>
+      </c>
       <c r="B318" s="6" t="s">
         <v>746</v>
       </c>
@@ -15608,7 +15686,9 @@
       <c r="Z318" s="8"/>
     </row>
     <row r="319" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A319" s="9"/>
+      <c r="A319" s="9">
+        <v>318</v>
+      </c>
       <c r="B319" s="10" t="s">
         <v>749</v>
       </c>
@@ -15644,7 +15724,9 @@
       <c r="Z319" s="8"/>
     </row>
     <row r="320" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A320" s="5"/>
+      <c r="A320" s="5">
+        <v>319</v>
+      </c>
       <c r="B320" s="6" t="s">
         <v>751</v>
       </c>
@@ -15680,7 +15762,9 @@
       <c r="Z320" s="8"/>
     </row>
     <row r="321" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A321" s="9"/>
+      <c r="A321" s="9">
+        <v>320</v>
+      </c>
       <c r="B321" s="10" t="s">
         <v>753</v>
       </c>
@@ -15716,7 +15800,9 @@
       <c r="Z321" s="8"/>
     </row>
     <row r="322" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A322" s="5"/>
+      <c r="A322" s="5">
+        <v>321</v>
+      </c>
       <c r="B322" s="6" t="s">
         <v>756</v>
       </c>
@@ -15752,7 +15838,9 @@
       <c r="Z322" s="8"/>
     </row>
     <row r="323" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A323" s="9"/>
+      <c r="A323" s="9">
+        <v>322</v>
+      </c>
       <c r="B323" s="10" t="s">
         <v>758</v>
       </c>
@@ -15788,7 +15876,9 @@
       <c r="Z323" s="8"/>
     </row>
     <row r="324" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A324" s="5"/>
+      <c r="A324" s="5">
+        <v>323</v>
+      </c>
       <c r="B324" s="6" t="s">
         <v>760</v>
       </c>
@@ -15824,7 +15914,9 @@
       <c r="Z324" s="8"/>
     </row>
     <row r="325" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A325" s="9"/>
+      <c r="A325" s="9">
+        <v>324</v>
+      </c>
       <c r="B325" s="10" t="s">
         <v>762</v>
       </c>
@@ -15860,7 +15952,9 @@
       <c r="Z325" s="8"/>
     </row>
     <row r="326" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A326" s="5"/>
+      <c r="A326" s="5">
+        <v>325</v>
+      </c>
       <c r="B326" s="6" t="s">
         <v>764</v>
       </c>
@@ -15896,7 +15990,9 @@
       <c r="Z326" s="8"/>
     </row>
     <row r="327" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A327" s="9"/>
+      <c r="A327" s="9">
+        <v>326</v>
+      </c>
       <c r="B327" s="10" t="s">
         <v>766</v>
       </c>
@@ -15932,7 +16028,9 @@
       <c r="Z327" s="8"/>
     </row>
     <row r="328" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A328" s="5"/>
+      <c r="A328" s="5">
+        <v>327</v>
+      </c>
       <c r="B328" s="6" t="s">
         <v>768</v>
       </c>
@@ -15968,7 +16066,9 @@
       <c r="Z328" s="8"/>
     </row>
     <row r="329" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A329" s="9"/>
+      <c r="A329" s="9">
+        <v>328</v>
+      </c>
       <c r="B329" s="10" t="s">
         <v>770</v>
       </c>
@@ -16004,7 +16104,9 @@
       <c r="Z329" s="8"/>
     </row>
     <row r="330" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A330" s="5"/>
+      <c r="A330" s="5">
+        <v>329</v>
+      </c>
       <c r="B330" s="6" t="s">
         <v>772</v>
       </c>
@@ -16040,7 +16142,9 @@
       <c r="Z330" s="8"/>
     </row>
     <row r="331" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A331" s="9"/>
+      <c r="A331" s="9">
+        <v>330</v>
+      </c>
       <c r="B331" s="10" t="s">
         <v>775</v>
       </c>
@@ -16076,7 +16180,9 @@
       <c r="Z331" s="8"/>
     </row>
     <row r="332" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A332" s="5"/>
+      <c r="A332" s="5">
+        <v>331</v>
+      </c>
       <c r="B332" s="6" t="s">
         <v>777</v>
       </c>
@@ -16112,7 +16218,9 @@
       <c r="Z332" s="8"/>
     </row>
     <row r="333" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A333" s="9"/>
+      <c r="A333" s="9">
+        <v>332</v>
+      </c>
       <c r="B333" s="10" t="s">
         <v>779</v>
       </c>
@@ -16148,7 +16256,9 @@
       <c r="Z333" s="8"/>
     </row>
     <row r="334" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A334" s="5"/>
+      <c r="A334" s="5">
+        <v>333</v>
+      </c>
       <c r="B334" s="6" t="s">
         <v>781</v>
       </c>
@@ -16184,7 +16294,9 @@
       <c r="Z334" s="8"/>
     </row>
     <row r="335" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A335" s="9"/>
+      <c r="A335" s="9">
+        <v>334</v>
+      </c>
       <c r="B335" s="10" t="s">
         <v>783</v>
       </c>
@@ -16220,7 +16332,9 @@
       <c r="Z335" s="8"/>
     </row>
     <row r="336" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A336" s="5"/>
+      <c r="A336" s="5">
+        <v>335</v>
+      </c>
       <c r="B336" s="6" t="s">
         <v>785</v>
       </c>
@@ -16256,7 +16370,9 @@
       <c r="Z336" s="8"/>
     </row>
     <row r="337" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A337" s="9"/>
+      <c r="A337" s="9">
+        <v>336</v>
+      </c>
       <c r="B337" s="10" t="s">
         <v>788</v>
       </c>
@@ -16292,7 +16408,9 @@
       <c r="Z337" s="8"/>
     </row>
     <row r="338" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A338" s="5"/>
+      <c r="A338" s="5">
+        <v>337</v>
+      </c>
       <c r="B338" s="6" t="s">
         <v>790</v>
       </c>
@@ -16328,7 +16446,9 @@
       <c r="Z338" s="8"/>
     </row>
     <row r="339" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A339" s="9"/>
+      <c r="A339" s="9">
+        <v>338</v>
+      </c>
       <c r="B339" s="10" t="s">
         <v>792</v>
       </c>
@@ -16364,7 +16484,9 @@
       <c r="Z339" s="8"/>
     </row>
     <row r="340" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A340" s="5"/>
+      <c r="A340" s="5">
+        <v>339</v>
+      </c>
       <c r="B340" s="6" t="s">
         <v>794</v>
       </c>
@@ -16400,7 +16522,9 @@
       <c r="Z340" s="8"/>
     </row>
     <row r="341" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A341" s="9"/>
+      <c r="A341" s="9">
+        <v>340</v>
+      </c>
       <c r="B341" s="10" t="s">
         <v>796</v>
       </c>
@@ -16436,7 +16560,9 @@
       <c r="Z341" s="8"/>
     </row>
     <row r="342" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A342" s="5"/>
+      <c r="A342" s="5">
+        <v>341</v>
+      </c>
       <c r="B342" s="6" t="s">
         <v>798</v>
       </c>
@@ -16472,7 +16598,9 @@
       <c r="Z342" s="8"/>
     </row>
     <row r="343" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A343" s="9"/>
+      <c r="A343" s="9">
+        <v>342</v>
+      </c>
       <c r="B343" s="10" t="s">
         <v>800</v>
       </c>
@@ -16508,7 +16636,9 @@
       <c r="Z343" s="8"/>
     </row>
     <row r="344" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A344" s="5"/>
+      <c r="A344" s="5">
+        <v>343</v>
+      </c>
       <c r="B344" s="6" t="s">
         <v>802</v>
       </c>
@@ -16544,7 +16674,9 @@
       <c r="Z344" s="8"/>
     </row>
     <row r="345" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A345" s="9"/>
+      <c r="A345" s="9">
+        <v>344</v>
+      </c>
       <c r="B345" s="10" t="s">
         <v>804</v>
       </c>
@@ -16580,7 +16712,9 @@
       <c r="Z345" s="8"/>
     </row>
     <row r="346" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A346" s="5"/>
+      <c r="A346" s="5">
+        <v>345</v>
+      </c>
       <c r="B346" s="6" t="s">
         <v>806</v>
       </c>
@@ -16616,7 +16750,9 @@
       <c r="Z346" s="8"/>
     </row>
     <row r="347" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A347" s="9"/>
+      <c r="A347" s="9">
+        <v>346</v>
+      </c>
       <c r="B347" s="10" t="s">
         <v>809</v>
       </c>
@@ -16652,7 +16788,9 @@
       <c r="Z347" s="8"/>
     </row>
     <row r="348" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A348" s="5"/>
+      <c r="A348" s="5">
+        <v>347</v>
+      </c>
       <c r="B348" s="6" t="s">
         <v>811</v>
       </c>
@@ -16688,7 +16826,9 @@
       <c r="Z348" s="8"/>
     </row>
     <row r="349" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A349" s="9"/>
+      <c r="A349" s="9">
+        <v>348</v>
+      </c>
       <c r="B349" s="10" t="s">
         <v>813</v>
       </c>
@@ -16724,7 +16864,9 @@
       <c r="Z349" s="8"/>
     </row>
     <row r="350" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A350" s="5"/>
+      <c r="A350" s="5">
+        <v>349</v>
+      </c>
       <c r="B350" s="6" t="s">
         <v>815</v>
       </c>
@@ -16760,7 +16902,9 @@
       <c r="Z350" s="8"/>
     </row>
     <row r="351" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A351" s="9"/>
+      <c r="A351" s="9">
+        <v>350</v>
+      </c>
       <c r="B351" s="10" t="s">
         <v>817</v>
       </c>
@@ -16796,7 +16940,9 @@
       <c r="Z351" s="8"/>
     </row>
     <row r="352" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A352" s="5"/>
+      <c r="A352" s="5">
+        <v>351</v>
+      </c>
       <c r="B352" s="6" t="s">
         <v>819</v>
       </c>
@@ -16832,7 +16978,9 @@
       <c r="Z352" s="8"/>
     </row>
     <row r="353" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A353" s="9"/>
+      <c r="A353" s="9">
+        <v>352</v>
+      </c>
       <c r="B353" s="10" t="s">
         <v>821</v>
       </c>
@@ -16868,7 +17016,9 @@
       <c r="Z353" s="8"/>
     </row>
     <row r="354" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A354" s="5"/>
+      <c r="A354" s="5">
+        <v>353</v>
+      </c>
       <c r="B354" s="6" t="s">
         <v>823</v>
       </c>
@@ -16904,7 +17054,9 @@
       <c r="Z354" s="8"/>
     </row>
     <row r="355" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A355" s="9"/>
+      <c r="A355" s="9">
+        <v>354</v>
+      </c>
       <c r="B355" s="10" t="s">
         <v>826</v>
       </c>
@@ -16940,7 +17092,9 @@
       <c r="Z355" s="8"/>
     </row>
     <row r="356" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A356" s="5"/>
+      <c r="A356" s="5">
+        <v>355</v>
+      </c>
       <c r="B356" s="6" t="s">
         <v>828</v>
       </c>
@@ -16976,7 +17130,9 @@
       <c r="Z356" s="8"/>
     </row>
     <row r="357" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A357" s="9"/>
+      <c r="A357" s="9">
+        <v>356</v>
+      </c>
       <c r="B357" s="10" t="s">
         <v>830</v>
       </c>
@@ -17012,7 +17168,9 @@
       <c r="Z357" s="8"/>
     </row>
     <row r="358" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A358" s="5"/>
+      <c r="A358" s="5">
+        <v>357</v>
+      </c>
       <c r="B358" s="6" t="s">
         <v>832</v>
       </c>
@@ -17048,7 +17206,9 @@
       <c r="Z358" s="8"/>
     </row>
     <row r="359" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A359" s="9"/>
+      <c r="A359" s="9">
+        <v>358</v>
+      </c>
       <c r="B359" s="10" t="s">
         <v>834</v>
       </c>
@@ -17084,7 +17244,9 @@
       <c r="Z359" s="8"/>
     </row>
     <row r="360" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A360" s="5"/>
+      <c r="A360" s="5">
+        <v>359</v>
+      </c>
       <c r="B360" s="6" t="s">
         <v>836</v>
       </c>
@@ -17120,7 +17282,9 @@
       <c r="Z360" s="8"/>
     </row>
     <row r="361" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A361" s="9"/>
+      <c r="A361" s="9">
+        <v>360</v>
+      </c>
       <c r="B361" s="10" t="s">
         <v>839</v>
       </c>
@@ -17156,7 +17320,9 @@
       <c r="Z361" s="8"/>
     </row>
     <row r="362" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A362" s="5"/>
+      <c r="A362" s="5">
+        <v>361</v>
+      </c>
       <c r="B362" s="6" t="s">
         <v>841</v>
       </c>
@@ -17192,7 +17358,9 @@
       <c r="Z362" s="8"/>
     </row>
     <row r="363" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A363" s="9"/>
+      <c r="A363" s="9">
+        <v>362</v>
+      </c>
       <c r="B363" s="10" t="s">
         <v>843</v>
       </c>
@@ -17228,7 +17396,9 @@
       <c r="Z363" s="8"/>
     </row>
     <row r="364" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A364" s="5"/>
+      <c r="A364" s="5">
+        <v>363</v>
+      </c>
       <c r="B364" s="6" t="s">
         <v>845</v>
       </c>
@@ -17264,7 +17434,9 @@
       <c r="Z364" s="8"/>
     </row>
     <row r="365" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A365" s="9"/>
+      <c r="A365" s="9">
+        <v>364</v>
+      </c>
       <c r="B365" s="10" t="s">
         <v>848</v>
       </c>
@@ -17300,7 +17472,9 @@
       <c r="Z365" s="8"/>
     </row>
     <row r="366" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A366" s="5"/>
+      <c r="A366" s="5">
+        <v>365</v>
+      </c>
       <c r="B366" s="6" t="s">
         <v>850</v>
       </c>
@@ -17336,7 +17510,9 @@
       <c r="Z366" s="8"/>
     </row>
     <row r="367" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A367" s="9"/>
+      <c r="A367" s="9">
+        <v>366</v>
+      </c>
       <c r="B367" s="10" t="s">
         <v>853</v>
       </c>
@@ -17372,7 +17548,9 @@
       <c r="Z367" s="8"/>
     </row>
     <row r="368" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A368" s="5"/>
+      <c r="A368" s="5">
+        <v>367</v>
+      </c>
       <c r="B368" s="6" t="s">
         <v>855</v>
       </c>
@@ -17408,7 +17586,9 @@
       <c r="Z368" s="8"/>
     </row>
     <row r="369" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A369" s="9"/>
+      <c r="A369" s="9">
+        <v>368</v>
+      </c>
       <c r="B369" s="10" t="s">
         <v>857</v>
       </c>
@@ -17444,7 +17624,9 @@
       <c r="Z369" s="8"/>
     </row>
     <row r="370" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A370" s="5"/>
+      <c r="A370" s="5">
+        <v>369</v>
+      </c>
       <c r="B370" s="6" t="s">
         <v>859</v>
       </c>
@@ -17480,7 +17662,9 @@
       <c r="Z370" s="8"/>
     </row>
     <row r="371" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A371" s="9"/>
+      <c r="A371" s="9">
+        <v>370</v>
+      </c>
       <c r="B371" s="10" t="s">
         <v>861</v>
       </c>
@@ -17516,7 +17700,9 @@
       <c r="Z371" s="8"/>
     </row>
     <row r="372" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A372" s="5"/>
+      <c r="A372" s="5">
+        <v>371</v>
+      </c>
       <c r="B372" s="6" t="s">
         <v>863</v>
       </c>
@@ -17552,7 +17738,9 @@
       <c r="Z372" s="8"/>
     </row>
     <row r="373" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A373" s="9"/>
+      <c r="A373" s="9">
+        <v>372</v>
+      </c>
       <c r="B373" s="10" t="s">
         <v>865</v>
       </c>
@@ -17588,7 +17776,9 @@
       <c r="Z373" s="8"/>
     </row>
     <row r="374" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A374" s="5"/>
+      <c r="A374" s="5">
+        <v>373</v>
+      </c>
       <c r="B374" s="6" t="s">
         <v>867</v>
       </c>
@@ -17624,7 +17814,9 @@
       <c r="Z374" s="8"/>
     </row>
     <row r="375" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A375" s="9"/>
+      <c r="A375" s="9">
+        <v>374</v>
+      </c>
       <c r="B375" s="10" t="s">
         <v>869</v>
       </c>
@@ -17660,7 +17852,9 @@
       <c r="Z375" s="8"/>
     </row>
     <row r="376" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A376" s="5"/>
+      <c r="A376" s="5">
+        <v>375</v>
+      </c>
       <c r="B376" s="6" t="s">
         <v>871</v>
       </c>
@@ -17696,7 +17890,9 @@
       <c r="Z376" s="8"/>
     </row>
     <row r="377" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A377" s="9"/>
+      <c r="A377" s="9">
+        <v>376</v>
+      </c>
       <c r="B377" s="10" t="s">
         <v>873</v>
       </c>
@@ -17732,7 +17928,9 @@
       <c r="Z377" s="8"/>
     </row>
     <row r="378" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A378" s="5"/>
+      <c r="A378" s="5">
+        <v>377</v>
+      </c>
       <c r="B378" s="6" t="s">
         <v>876</v>
       </c>
@@ -17768,7 +17966,9 @@
       <c r="Z378" s="8"/>
     </row>
     <row r="379" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A379" s="9"/>
+      <c r="A379" s="9">
+        <v>378</v>
+      </c>
       <c r="B379" s="10" t="s">
         <v>879</v>
       </c>
@@ -17804,7 +18004,9 @@
       <c r="Z379" s="8"/>
     </row>
     <row r="380" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A380" s="5"/>
+      <c r="A380" s="5">
+        <v>379</v>
+      </c>
       <c r="B380" s="6" t="s">
         <v>881</v>
       </c>
@@ -17840,7 +18042,9 @@
       <c r="Z380" s="8"/>
     </row>
     <row r="381" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A381" s="9"/>
+      <c r="A381" s="9">
+        <v>380</v>
+      </c>
       <c r="B381" s="10" t="s">
         <v>883</v>
       </c>
@@ -17876,7 +18080,9 @@
       <c r="Z381" s="8"/>
     </row>
     <row r="382" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A382" s="5"/>
+      <c r="A382" s="5">
+        <v>381</v>
+      </c>
       <c r="B382" s="6" t="s">
         <v>885</v>
       </c>
@@ -17912,7 +18118,9 @@
       <c r="Z382" s="8"/>
     </row>
     <row r="383" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A383" s="9"/>
+      <c r="A383" s="9">
+        <v>382</v>
+      </c>
       <c r="B383" s="10" t="s">
         <v>887</v>
       </c>
@@ -17948,7 +18156,9 @@
       <c r="Z383" s="8"/>
     </row>
     <row r="384" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A384" s="5"/>
+      <c r="A384" s="5">
+        <v>383</v>
+      </c>
       <c r="B384" s="6" t="s">
         <v>889</v>
       </c>
@@ -17984,7 +18194,9 @@
       <c r="Z384" s="8"/>
     </row>
     <row r="385" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A385" s="9"/>
+      <c r="A385" s="9">
+        <v>384</v>
+      </c>
       <c r="B385" s="10" t="s">
         <v>891</v>
       </c>
@@ -18020,7 +18232,9 @@
       <c r="Z385" s="8"/>
     </row>
     <row r="386" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A386" s="5"/>
+      <c r="A386" s="5">
+        <v>385</v>
+      </c>
       <c r="B386" s="6" t="s">
         <v>893</v>
       </c>
@@ -18056,7 +18270,9 @@
       <c r="Z386" s="8"/>
     </row>
     <row r="387" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A387" s="9"/>
+      <c r="A387" s="9">
+        <v>386</v>
+      </c>
       <c r="B387" s="10" t="s">
         <v>895</v>
       </c>
@@ -18092,7 +18308,9 @@
       <c r="Z387" s="8"/>
     </row>
     <row r="388" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A388" s="5"/>
+      <c r="A388" s="5">
+        <v>387</v>
+      </c>
       <c r="B388" s="6" t="s">
         <v>897</v>
       </c>
@@ -18128,7 +18346,9 @@
       <c r="Z388" s="8"/>
     </row>
     <row r="389" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A389" s="9"/>
+      <c r="A389" s="9">
+        <v>388</v>
+      </c>
       <c r="B389" s="10" t="s">
         <v>899</v>
       </c>
@@ -18164,7 +18384,9 @@
       <c r="Z389" s="8"/>
     </row>
     <row r="390" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A390" s="5"/>
+      <c r="A390" s="5">
+        <v>389</v>
+      </c>
       <c r="B390" s="6" t="s">
         <v>901</v>
       </c>
@@ -18200,7 +18422,9 @@
       <c r="Z390" s="8"/>
     </row>
     <row r="391" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A391" s="9"/>
+      <c r="A391" s="9">
+        <v>390</v>
+      </c>
       <c r="B391" s="10" t="s">
         <v>903</v>
       </c>
@@ -18236,7 +18460,9 @@
       <c r="Z391" s="8"/>
     </row>
     <row r="392" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A392" s="5"/>
+      <c r="A392" s="5">
+        <v>391</v>
+      </c>
       <c r="B392" s="6" t="s">
         <v>905</v>
       </c>
@@ -18272,7 +18498,9 @@
       <c r="Z392" s="8"/>
     </row>
     <row r="393" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A393" s="9"/>
+      <c r="A393" s="9">
+        <v>392</v>
+      </c>
       <c r="B393" s="10" t="s">
         <v>907</v>
       </c>
@@ -18308,7 +18536,9 @@
       <c r="Z393" s="8"/>
     </row>
     <row r="394" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A394" s="5"/>
+      <c r="A394" s="5">
+        <v>393</v>
+      </c>
       <c r="B394" s="6" t="s">
         <v>909</v>
       </c>
@@ -18344,7 +18574,9 @@
       <c r="Z394" s="8"/>
     </row>
     <row r="395" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A395" s="9"/>
+      <c r="A395" s="9">
+        <v>394</v>
+      </c>
       <c r="B395" s="10" t="s">
         <v>911</v>
       </c>
@@ -18380,7 +18612,9 @@
       <c r="Z395" s="8"/>
     </row>
     <row r="396" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A396" s="5"/>
+      <c r="A396" s="5">
+        <v>395</v>
+      </c>
       <c r="B396" s="6" t="s">
         <v>913</v>
       </c>
@@ -18416,7 +18650,9 @@
       <c r="Z396" s="8"/>
     </row>
     <row r="397" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A397" s="9"/>
+      <c r="A397" s="9">
+        <v>396</v>
+      </c>
       <c r="B397" s="10" t="s">
         <v>915</v>
       </c>
@@ -18452,7 +18688,9 @@
       <c r="Z397" s="8"/>
     </row>
     <row r="398" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A398" s="5"/>
+      <c r="A398" s="5">
+        <v>397</v>
+      </c>
       <c r="B398" s="6" t="s">
         <v>917</v>
       </c>
@@ -18488,7 +18726,9 @@
       <c r="Z398" s="8"/>
     </row>
     <row r="399" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A399" s="9"/>
+      <c r="A399" s="9">
+        <v>398</v>
+      </c>
       <c r="B399" s="10" t="s">
         <v>919</v>
       </c>
@@ -18524,7 +18764,9 @@
       <c r="Z399" s="8"/>
     </row>
     <row r="400" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A400" s="5"/>
+      <c r="A400" s="5">
+        <v>399</v>
+      </c>
       <c r="B400" s="6" t="s">
         <v>921</v>
       </c>
@@ -18560,7 +18802,9 @@
       <c r="Z400" s="8"/>
     </row>
     <row r="401" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A401" s="9"/>
+      <c r="A401" s="9">
+        <v>400</v>
+      </c>
       <c r="B401" s="10" t="s">
         <v>923</v>
       </c>
@@ -18596,7 +18840,9 @@
       <c r="Z401" s="8"/>
     </row>
     <row r="402" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A402" s="5"/>
+      <c r="A402" s="5">
+        <v>401</v>
+      </c>
       <c r="B402" s="6" t="s">
         <v>925</v>
       </c>
@@ -18632,7 +18878,9 @@
       <c r="Z402" s="8"/>
     </row>
     <row r="403" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A403" s="9"/>
+      <c r="A403" s="9">
+        <v>402</v>
+      </c>
       <c r="B403" s="10" t="s">
         <v>927</v>
       </c>
@@ -18668,7 +18916,9 @@
       <c r="Z403" s="8"/>
     </row>
     <row r="404" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A404" s="5"/>
+      <c r="A404" s="5">
+        <v>403</v>
+      </c>
       <c r="B404" s="6" t="s">
         <v>929</v>
       </c>
@@ -18704,7 +18954,9 @@
       <c r="Z404" s="8"/>
     </row>
     <row r="405" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A405" s="9"/>
+      <c r="A405" s="9">
+        <v>404</v>
+      </c>
       <c r="B405" s="10" t="s">
         <v>931</v>
       </c>
@@ -18740,7 +18992,9 @@
       <c r="Z405" s="8"/>
     </row>
     <row r="406" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A406" s="5"/>
+      <c r="A406" s="5">
+        <v>405</v>
+      </c>
       <c r="B406" s="6" t="s">
         <v>933</v>
       </c>
@@ -18776,7 +19030,9 @@
       <c r="Z406" s="8"/>
     </row>
     <row r="407" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A407" s="9"/>
+      <c r="A407" s="9">
+        <v>406</v>
+      </c>
       <c r="B407" s="10" t="s">
         <v>935</v>
       </c>
@@ -18812,7 +19068,9 @@
       <c r="Z407" s="8"/>
     </row>
     <row r="408" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A408" s="5"/>
+      <c r="A408" s="5">
+        <v>407</v>
+      </c>
       <c r="B408" s="6" t="s">
         <v>937</v>
       </c>
@@ -18848,7 +19106,9 @@
       <c r="Z408" s="8"/>
     </row>
     <row r="409" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A409" s="9"/>
+      <c r="A409" s="9">
+        <v>408</v>
+      </c>
       <c r="B409" s="10" t="s">
         <v>939</v>
       </c>
@@ -18884,7 +19144,9 @@
       <c r="Z409" s="8"/>
     </row>
     <row r="410" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A410" s="5"/>
+      <c r="A410" s="5">
+        <v>409</v>
+      </c>
       <c r="B410" s="6" t="s">
         <v>941</v>
       </c>
@@ -18920,7 +19182,9 @@
       <c r="Z410" s="8"/>
     </row>
     <row r="411" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A411" s="9"/>
+      <c r="A411" s="9">
+        <v>410</v>
+      </c>
       <c r="B411" s="10" t="s">
         <v>943</v>
       </c>
@@ -18956,7 +19220,9 @@
       <c r="Z411" s="8"/>
     </row>
     <row r="412" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A412" s="5"/>
+      <c r="A412" s="5">
+        <v>411</v>
+      </c>
       <c r="B412" s="6" t="s">
         <v>945</v>
       </c>
@@ -18992,7 +19258,9 @@
       <c r="Z412" s="8"/>
     </row>
     <row r="413" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A413" s="9"/>
+      <c r="A413" s="9">
+        <v>412</v>
+      </c>
       <c r="B413" s="10" t="s">
         <v>947</v>
       </c>
@@ -19028,7 +19296,9 @@
       <c r="Z413" s="8"/>
     </row>
     <row r="414" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A414" s="5"/>
+      <c r="A414" s="5">
+        <v>413</v>
+      </c>
       <c r="B414" s="6" t="s">
         <v>949</v>
       </c>
@@ -19064,7 +19334,9 @@
       <c r="Z414" s="8"/>
     </row>
     <row r="415" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A415" s="9"/>
+      <c r="A415" s="9">
+        <v>414</v>
+      </c>
       <c r="B415" s="10" t="s">
         <v>951</v>
       </c>
@@ -19100,7 +19372,9 @@
       <c r="Z415" s="8"/>
     </row>
     <row r="416" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A416" s="5"/>
+      <c r="A416" s="5">
+        <v>415</v>
+      </c>
       <c r="B416" s="6" t="s">
         <v>953</v>
       </c>
@@ -19136,7 +19410,9 @@
       <c r="Z416" s="8"/>
     </row>
     <row r="417" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A417" s="9"/>
+      <c r="A417" s="9">
+        <v>416</v>
+      </c>
       <c r="B417" s="10" t="s">
         <v>955</v>
       </c>
@@ -19172,7 +19448,9 @@
       <c r="Z417" s="8"/>
     </row>
     <row r="418" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A418" s="5"/>
+      <c r="A418" s="5">
+        <v>417</v>
+      </c>
       <c r="B418" s="6" t="s">
         <v>957</v>
       </c>
@@ -19208,7 +19486,9 @@
       <c r="Z418" s="8"/>
     </row>
     <row r="419" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A419" s="9"/>
+      <c r="A419" s="9">
+        <v>418</v>
+      </c>
       <c r="B419" s="10" t="s">
         <v>959</v>
       </c>
@@ -19244,7 +19524,9 @@
       <c r="Z419" s="8"/>
     </row>
     <row r="420" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A420" s="5"/>
+      <c r="A420" s="5">
+        <v>419</v>
+      </c>
       <c r="B420" s="6" t="s">
         <v>961</v>
       </c>
@@ -19280,7 +19562,9 @@
       <c r="Z420" s="8"/>
     </row>
     <row r="421" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A421" s="9"/>
+      <c r="A421" s="9">
+        <v>420</v>
+      </c>
       <c r="B421" s="10" t="s">
         <v>963</v>
       </c>
@@ -19316,7 +19600,9 @@
       <c r="Z421" s="8"/>
     </row>
     <row r="422" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A422" s="5"/>
+      <c r="A422" s="5">
+        <v>421</v>
+      </c>
       <c r="B422" s="6" t="s">
         <v>965</v>
       </c>
@@ -19352,7 +19638,9 @@
       <c r="Z422" s="8"/>
     </row>
     <row r="423" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A423" s="9"/>
+      <c r="A423" s="9">
+        <v>422</v>
+      </c>
       <c r="B423" s="10" t="s">
         <v>967</v>
       </c>
@@ -19388,7 +19676,9 @@
       <c r="Z423" s="8"/>
     </row>
     <row r="424" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A424" s="5"/>
+      <c r="A424" s="5">
+        <v>423</v>
+      </c>
       <c r="B424" s="6" t="s">
         <v>969</v>
       </c>
@@ -19424,7 +19714,9 @@
       <c r="Z424" s="8"/>
     </row>
     <row r="425" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A425" s="9"/>
+      <c r="A425" s="9">
+        <v>424</v>
+      </c>
       <c r="B425" s="10" t="s">
         <v>971</v>
       </c>
@@ -19460,7 +19752,9 @@
       <c r="Z425" s="8"/>
     </row>
     <row r="426" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A426" s="5"/>
+      <c r="A426" s="5">
+        <v>425</v>
+      </c>
       <c r="B426" s="6" t="s">
         <v>973</v>
       </c>
@@ -19496,7 +19790,9 @@
       <c r="Z426" s="8"/>
     </row>
     <row r="427" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A427" s="9"/>
+      <c r="A427" s="9">
+        <v>426</v>
+      </c>
       <c r="B427" s="10" t="s">
         <v>975</v>
       </c>
@@ -19532,7 +19828,9 @@
       <c r="Z427" s="8"/>
     </row>
     <row r="428" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A428" s="5"/>
+      <c r="A428" s="5">
+        <v>427</v>
+      </c>
       <c r="B428" s="6" t="s">
         <v>977</v>
       </c>
@@ -19568,7 +19866,9 @@
       <c r="Z428" s="8"/>
     </row>
     <row r="429" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A429" s="9"/>
+      <c r="A429" s="9">
+        <v>428</v>
+      </c>
       <c r="B429" s="10" t="s">
         <v>979</v>
       </c>
@@ -19604,7 +19904,9 @@
       <c r="Z429" s="8"/>
     </row>
     <row r="430" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A430" s="5"/>
+      <c r="A430" s="5">
+        <v>429</v>
+      </c>
       <c r="B430" s="6" t="s">
         <v>981</v>
       </c>
@@ -19640,7 +19942,9 @@
       <c r="Z430" s="8"/>
     </row>
     <row r="431" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A431" s="9"/>
+      <c r="A431" s="9">
+        <v>430</v>
+      </c>
       <c r="B431" s="10" t="s">
         <v>983</v>
       </c>
@@ -19676,7 +19980,9 @@
       <c r="Z431" s="8"/>
     </row>
     <row r="432" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A432" s="5"/>
+      <c r="A432" s="5">
+        <v>431</v>
+      </c>
       <c r="B432" s="6" t="s">
         <v>985</v>
       </c>
@@ -19712,7 +20018,9 @@
       <c r="Z432" s="8"/>
     </row>
     <row r="433" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A433" s="9"/>
+      <c r="A433" s="9">
+        <v>432</v>
+      </c>
       <c r="B433" s="10" t="s">
         <v>987</v>
       </c>
@@ -19748,7 +20056,9 @@
       <c r="Z433" s="8"/>
     </row>
     <row r="434" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A434" s="5"/>
+      <c r="A434" s="5">
+        <v>433</v>
+      </c>
       <c r="B434" s="6" t="s">
         <v>989</v>
       </c>
@@ -19784,7 +20094,9 @@
       <c r="Z434" s="8"/>
     </row>
     <row r="435" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A435" s="9"/>
+      <c r="A435" s="9">
+        <v>434</v>
+      </c>
       <c r="B435" s="10" t="s">
         <v>991</v>
       </c>
@@ -19820,7 +20132,9 @@
       <c r="Z435" s="8"/>
     </row>
     <row r="436" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A436" s="5"/>
+      <c r="A436" s="5">
+        <v>435</v>
+      </c>
       <c r="B436" s="6" t="s">
         <v>993</v>
       </c>
@@ -19856,7 +20170,9 @@
       <c r="Z436" s="8"/>
     </row>
     <row r="437" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A437" s="9"/>
+      <c r="A437" s="9">
+        <v>436</v>
+      </c>
       <c r="B437" s="10" t="s">
         <v>995</v>
       </c>
@@ -19892,7 +20208,9 @@
       <c r="Z437" s="8"/>
     </row>
     <row r="438" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A438" s="5"/>
+      <c r="A438" s="5">
+        <v>437</v>
+      </c>
       <c r="B438" s="6" t="s">
         <v>997</v>
       </c>
@@ -19928,7 +20246,9 @@
       <c r="Z438" s="8"/>
     </row>
     <row r="439" spans="1:26" ht="13" x14ac:dyDescent="0.15">
-      <c r="A439" s="9"/>
+      <c r="A439" s="5">
+        <v>438</v>
+      </c>
       <c r="B439" s="10" t="s">
         <v>999</v>
       </c>
